--- a/public/template/order_template.xlsx
+++ b/public/template/order_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5791060F-70DE-4F16-8200-DAACA1D0D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF1D2BC-FE5E-4B9F-A743-2D4EA0E11963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
@@ -680,10 +680,109 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,105 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,12 +1323,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="2" spans="1:133" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1462,17 +1462,17 @@
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1482,8 +1482,8 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -1507,39 +1507,39 @@
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="56" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -1581,15 +1581,15 @@
     </row>
     <row r="9" spans="1:133" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12"/>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="10" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="1"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1619,18 +1619,18 @@
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="67">
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="77">
         <f>M44</f>
         <v>0</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="1"/>
       <c r="J11" s="15"/>
       <c r="K11" s="1"/>
@@ -1642,13 +1642,13 @@
     </row>
     <row r="12" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1695,18 +1695,18 @@
     </row>
     <row r="15" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1829,26 +1829,26 @@
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72" t="s">
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72" t="s">
+      <c r="J16" s="82"/>
+      <c r="K16" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72" t="s">
+      <c r="L16" s="82"/>
+      <c r="M16" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="72"/>
+      <c r="N16" s="82"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1971,21 +1971,21 @@
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="45"/>
       <c r="J17" s="41"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59">
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="69">
         <f>I17*K17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="59"/>
+      <c r="N17" s="69"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -2109,21 +2109,21 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
       <c r="I18" s="46"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76">
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60">
         <f>I18*K18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="76"/>
+      <c r="N18" s="60"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2247,21 +2247,21 @@
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="45"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58">
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62">
         <f t="shared" ref="M19:M22" si="0">I19*K19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="58"/>
+      <c r="N19" s="62"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2385,21 +2385,21 @@
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
       <c r="I20" s="46"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76">
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="76"/>
+      <c r="N20" s="60"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2523,21 +2523,21 @@
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="45"/>
       <c r="J21" s="43"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58">
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="58"/>
+      <c r="N21" s="62"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2661,21 +2661,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="46"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76">
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="76"/>
+      <c r="N22" s="60"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -2799,21 +2799,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="45"/>
       <c r="J23" s="43"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58">
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62">
         <f>I23*K23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="58"/>
+      <c r="N23" s="62"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2937,21 +2937,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="46"/>
       <c r="J24" s="42"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76">
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60">
         <f>I24*K24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="76"/>
+      <c r="N24" s="60"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -3075,21 +3075,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="45"/>
       <c r="J25" s="43"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58">
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62">
         <f t="shared" ref="M25:M40" si="2">I25*K25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="58"/>
+      <c r="N25" s="62"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3213,21 +3213,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="46"/>
       <c r="J26" s="42"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76">
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="76"/>
+      <c r="N26" s="60"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3351,21 +3351,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="45"/>
       <c r="J27" s="43"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58">
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="58"/>
+      <c r="N27" s="62"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3489,21 +3489,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="46"/>
       <c r="J28" s="42"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76">
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="76"/>
+      <c r="N28" s="60"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -3627,21 +3627,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="45"/>
       <c r="J29" s="43"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58">
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="58"/>
+      <c r="N29" s="62"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3765,21 +3765,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="46"/>
       <c r="J30" s="42"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76">
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="76"/>
+      <c r="N30" s="60"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -3903,21 +3903,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="45"/>
       <c r="J31" s="43"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58">
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="58"/>
+      <c r="N31" s="62"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -4041,21 +4041,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="46"/>
       <c r="J32" s="42"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76">
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="76"/>
+      <c r="N32" s="60"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -4179,21 +4179,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="45"/>
       <c r="J33" s="43"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58">
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="58"/>
+      <c r="N33" s="62"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -4317,21 +4317,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="46"/>
       <c r="J34" s="42"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76">
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="76"/>
+      <c r="N34" s="60"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -4455,21 +4455,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="45"/>
       <c r="J35" s="43"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58">
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="58"/>
+      <c r="N35" s="62"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4593,21 +4593,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="46"/>
       <c r="J36" s="42"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76">
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="76"/>
+      <c r="N36" s="60"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -4731,21 +4731,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="45"/>
       <c r="J37" s="43"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58">
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="58"/>
+      <c r="N37" s="62"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4869,21 +4869,21 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="46"/>
       <c r="J38" s="42"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76">
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="76"/>
+      <c r="N38" s="60"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -5007,21 +5007,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
       <c r="I39" s="45"/>
       <c r="J39" s="43"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58">
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="58"/>
+      <c r="N39" s="62"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -5145,21 +5145,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
       <c r="I40" s="47"/>
       <c r="J40" s="44"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83">
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="83"/>
+      <c r="N40" s="57"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -5411,26 +5411,26 @@
       <c r="EC41"/>
     </row>
     <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="84" t="s">
+      <c r="J42" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="84"/>
+      <c r="K42" s="58"/>
       <c r="L42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="85">
+      <c r="M42" s="52">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="85"/>
+      <c r="N42" s="52"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -5550,26 +5550,26 @@
       <c r="EC42"/>
     </row>
     <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="86" t="s">
+      <c r="J43" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="86"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="85">
+      <c r="M43" s="52">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="85"/>
+      <c r="N43" s="52"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5689,26 +5689,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="88" t="s">
+      <c r="J44" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="88"/>
+      <c r="K44" s="54"/>
       <c r="L44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="89">
+      <c r="M44" s="55">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="89"/>
+      <c r="N44" s="55"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5965,17 +5965,17 @@
         <v>12</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -6078,19 +6078,19 @@
     </row>
     <row r="47" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6193,19 +6193,19 @@
     </row>
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
-      <c r="B48" s="49"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -6308,19 +6308,19 @@
     </row>
     <row r="49" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
-      <c r="B49" s="49"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
@@ -6423,19 +6423,19 @@
     </row>
     <row r="50" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
-      <c r="B50" s="49"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
@@ -6760,7 +6760,7 @@
       <c r="DK52"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="99">
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M3:N3"/>
@@ -6853,6 +6853,7 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D46:N50"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="M43:N43"/>

--- a/public/template/order_template.xlsx
+++ b/public/template/order_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF1D2BC-FE5E-4B9F-A743-2D4EA0E11963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A517F8-05D7-48C1-95E9-5EE05B6BD788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
+    <workbookView xWindow="14985" yWindow="2790" windowWidth="11670" windowHeight="10830" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="発注書" sheetId="6" r:id="rId1"/>
+    <sheet name="発注書" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">発注書!$A$1:$P$52</definedName>
@@ -137,16 +137,9 @@
   </si>
   <si>
     <t>発行日：</t>
-    <rPh sb="0" eb="2">
-      <t>ハッコウ</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合計金額</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -163,7 +156,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記の通り発注申し上げます。</t>
+    <t>下記の通りご発注申し上げます。</t>
+    <rPh sb="6" eb="8">
+      <t>ハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計金額</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -546,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,17 +652,8 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -682,8 +679,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -842,121 +845,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E374F8A-0306-420A-A801-FB88D7523863}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="13954125"/>
-          <a:ext cx="8496300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F28967A-5038-4390-AD73-53935DBFDC71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="13954125"/>
-          <a:ext cx="8496300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7080C71F-3CF3-4421-93E6-0EC70ED0F42C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D0203B-BE5E-4529-A1BF-579893CC2B66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE8D124-7975-435E-B51A-68E0CC14DCF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF67BB-90A5-4DD6-B4B5-9AAF97C666BF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1323,12 +1212,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1449,10 +1338,10 @@
     </row>
     <row r="2" spans="1:133" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1462,17 +1351,17 @@
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1482,8 +1371,8 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -1507,39 +1396,39 @@
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="89" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -1581,15 +1470,15 @@
     </row>
     <row r="9" spans="1:133" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
+      <c r="B9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12"/>
@@ -1601,13 +1490,13 @@
     </row>
     <row r="10" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="1"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1619,18 +1508,18 @@
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="77">
+      <c r="B11" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="76">
         <f>M44</f>
         <v>0</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="1"/>
       <c r="J11" s="15"/>
       <c r="K11" s="1"/>
@@ -1642,13 +1531,13 @@
     </row>
     <row r="12" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1695,18 +1584,18 @@
     </row>
     <row r="15" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1829,26 +1718,26 @@
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82" t="s">
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82" t="s">
+      <c r="J16" s="81"/>
+      <c r="K16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82" t="s">
+      <c r="L16" s="81"/>
+      <c r="M16" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="82"/>
+      <c r="N16" s="81"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1971,21 +1860,21 @@
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="69">
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="68">
         <f>I17*K17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="69"/>
+      <c r="N17" s="68"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -2109,21 +1998,21 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60">
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59">
         <f>I18*K18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="60"/>
+      <c r="N18" s="59"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2247,21 +2136,21 @@
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62">
+      <c r="C19" s="65"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61">
         <f t="shared" ref="M19:M22" si="0">I19*K19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="62"/>
+      <c r="N19" s="61"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2385,21 +2274,21 @@
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60">
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="60"/>
+      <c r="N20" s="59"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2523,21 +2412,21 @@
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62">
+      <c r="C21" s="65"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="62"/>
+      <c r="N21" s="61"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2661,21 +2550,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60">
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="60"/>
+      <c r="N22" s="59"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -2799,21 +2688,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62">
+      <c r="C23" s="65"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61">
         <f>I23*K23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="62"/>
+      <c r="N23" s="61"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2937,21 +2826,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59">
         <f>I24*K24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="60"/>
+      <c r="N24" s="59"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -3075,21 +2964,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61">
         <f t="shared" ref="M25:M40" si="2">I25*K25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="62"/>
+      <c r="N25" s="61"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3213,21 +3102,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="60"/>
+      <c r="N26" s="59"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3351,21 +3240,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="62"/>
+      <c r="N27" s="61"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3489,21 +3378,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="60"/>
+      <c r="N28" s="59"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -3627,21 +3516,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62">
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="62"/>
+      <c r="N29" s="61"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3765,21 +3654,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="60"/>
+      <c r="N30" s="59"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -3903,21 +3792,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62">
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="62"/>
+      <c r="N31" s="61"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -4041,21 +3930,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="60"/>
+      <c r="N32" s="59"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -4179,21 +4068,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="62"/>
+      <c r="N33" s="61"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -4317,21 +4206,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60">
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="60"/>
+      <c r="N34" s="59"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -4455,21 +4344,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62">
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="62"/>
+      <c r="N35" s="61"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4593,21 +4482,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="60"/>
+      <c r="N36" s="59"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -4731,21 +4620,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62">
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="62"/>
+      <c r="N37" s="61"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4869,21 +4758,21 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60">
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="60"/>
+      <c r="N38" s="59"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -5007,21 +4896,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62">
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="62"/>
+      <c r="N39" s="61"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -5145,21 +5034,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57">
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="57"/>
+      <c r="N40" s="56"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -5411,26 +5300,26 @@
       <c r="EC41"/>
     </row>
     <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="58" t="s">
+      <c r="J42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="58"/>
+      <c r="K42" s="57"/>
       <c r="L42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="52">
+      <c r="M42" s="51">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="52"/>
+      <c r="N42" s="51"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -5550,26 +5439,26 @@
       <c r="EC42"/>
     </row>
     <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="51" t="s">
+      <c r="J43" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="51"/>
+      <c r="K43" s="50"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="52">
+      <c r="M43" s="51">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="52"/>
+      <c r="N43" s="51"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5689,26 +5578,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="54" t="s">
+      <c r="J44" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="54"/>
+      <c r="K44" s="53"/>
       <c r="L44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="55">
+      <c r="M44" s="54">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="55"/>
+      <c r="N44" s="54"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5964,18 +5853,17 @@
       <c r="B46" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -6078,19 +5966,19 @@
     </row>
     <row r="47" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
-      <c r="B47" s="48"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6192,20 +6080,19 @@
       <c r="DK47"/>
     </row>
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="13"/>
-      <c r="B48" s="48"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -6305,22 +6192,39 @@
       <c r="DI48"/>
       <c r="DJ48"/>
       <c r="DK48"/>
+      <c r="DL48"/>
+      <c r="DM48"/>
+      <c r="DN48"/>
+      <c r="DO48"/>
+      <c r="DP48"/>
+      <c r="DQ48"/>
+      <c r="DR48"/>
+      <c r="DS48"/>
+      <c r="DT48"/>
+      <c r="DU48"/>
+      <c r="DV48"/>
+      <c r="DW48"/>
+      <c r="DX48"/>
+      <c r="DY48"/>
+      <c r="DZ48"/>
+      <c r="EA48"/>
+      <c r="EB48"/>
+      <c r="EC48"/>
     </row>
-    <row r="49" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="13"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
+    <row r="49" spans="2:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
@@ -6420,22 +6324,40 @@
       <c r="DI49"/>
       <c r="DJ49"/>
       <c r="DK49"/>
+      <c r="DL49"/>
+      <c r="DM49"/>
+      <c r="DN49"/>
+      <c r="DO49"/>
+      <c r="DP49"/>
+      <c r="DQ49"/>
+      <c r="DR49"/>
+      <c r="DS49"/>
+      <c r="DT49"/>
+      <c r="DU49"/>
+      <c r="DV49"/>
+      <c r="DW49"/>
+      <c r="DX49"/>
+      <c r="DY49"/>
+      <c r="DZ49"/>
+      <c r="EA49"/>
+      <c r="EB49"/>
+      <c r="EC49"/>
     </row>
-    <row r="50" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="13"/>
-      <c r="B50" s="48"/>
+    <row r="50" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="36"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="46"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
@@ -6535,21 +6457,40 @@
       <c r="DI50"/>
       <c r="DJ50"/>
       <c r="DK50"/>
+      <c r="DL50"/>
+      <c r="DM50"/>
+      <c r="DN50"/>
+      <c r="DO50"/>
+      <c r="DP50"/>
+      <c r="DQ50"/>
+      <c r="DR50"/>
+      <c r="DS50"/>
+      <c r="DT50"/>
+      <c r="DU50"/>
+      <c r="DV50"/>
+      <c r="DW50"/>
+      <c r="DX50"/>
+      <c r="DY50"/>
+      <c r="DZ50"/>
+      <c r="EA50"/>
+      <c r="EB50"/>
+      <c r="EC50"/>
     </row>
-    <row r="51" spans="1:115" s="1" customFormat="1" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="47"/>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
@@ -6649,16 +6590,27 @@
       <c r="DI51"/>
       <c r="DJ51"/>
       <c r="DK51"/>
+      <c r="DL51"/>
+      <c r="DM51"/>
+      <c r="DN51"/>
+      <c r="DO51"/>
+      <c r="DP51"/>
+      <c r="DQ51"/>
+      <c r="DR51"/>
+      <c r="DS51"/>
+      <c r="DT51"/>
+      <c r="DU51"/>
+      <c r="DV51"/>
+      <c r="DW51"/>
+      <c r="DX51"/>
+      <c r="DY51"/>
+      <c r="DZ51"/>
+      <c r="EA51"/>
+      <c r="EB51"/>
+      <c r="EC51"/>
     </row>
-    <row r="52" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="31"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="16"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
+    <row r="52" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D52" s="37"/>
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52"/>
@@ -6758,6 +6710,24 @@
       <c r="DI52"/>
       <c r="DJ52"/>
       <c r="DK52"/>
+      <c r="DL52"/>
+      <c r="DM52"/>
+      <c r="DN52"/>
+      <c r="DO52"/>
+      <c r="DP52"/>
+      <c r="DQ52"/>
+      <c r="DR52"/>
+      <c r="DS52"/>
+      <c r="DT52"/>
+      <c r="DU52"/>
+      <c r="DV52"/>
+      <c r="DW52"/>
+      <c r="DX52"/>
+      <c r="DY52"/>
+      <c r="DZ52"/>
+      <c r="EA52"/>
+      <c r="EB52"/>
+      <c r="EC52"/>
     </row>
   </sheetData>
   <mergeCells count="99">
@@ -6853,7 +6823,7 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D46:N50"/>
+    <mergeCell ref="D46:N51"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="M43:N43"/>

--- a/public/template/order_template.xlsx
+++ b/public/template/order_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syou5\wSystem\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A517F8-05D7-48C1-95E9-5EE05B6BD788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF0E8C9-67C3-45A3-AC76-90F2F385C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="2790" windowWidth="11670" windowHeight="10830" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
+    <workbookView xWindow="3000" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
   <sheets>
     <sheet name="発注書" sheetId="1" r:id="rId1"/>
@@ -1871,7 +1871,7 @@
       <c r="K17" s="61"/>
       <c r="L17" s="61"/>
       <c r="M17" s="68">
-        <f>I17*K17</f>
+        <f>IF(I17*K17=0, K17, I17*K17)</f>
         <v>0</v>
       </c>
       <c r="N17" s="68"/>
@@ -2009,7 +2009,7 @@
       <c r="K18" s="59"/>
       <c r="L18" s="59"/>
       <c r="M18" s="59">
-        <f>I18*K18</f>
+        <f>IF(I18*K18=0, K18, I18*K18)</f>
         <v>0</v>
       </c>
       <c r="N18" s="59"/>
@@ -2147,7 +2147,7 @@
       <c r="K19" s="61"/>
       <c r="L19" s="61"/>
       <c r="M19" s="61">
-        <f t="shared" ref="M19:M22" si="0">I19*K19</f>
+        <f>IF(I19*K19=0, K19, I19*K19)</f>
         <v>0</v>
       </c>
       <c r="N19" s="61"/>
@@ -2285,7 +2285,7 @@
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
       <c r="M20" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M20:M38" si="0">IF(I20*K20=0, K20, I20*K20)</f>
         <v>0</v>
       </c>
       <c r="N20" s="59"/>
@@ -2699,7 +2699,7 @@
       <c r="K23" s="61"/>
       <c r="L23" s="61"/>
       <c r="M23" s="61">
-        <f>I23*K23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="61"/>
@@ -2837,7 +2837,7 @@
       <c r="K24" s="59"/>
       <c r="L24" s="59"/>
       <c r="M24" s="59">
-        <f>I24*K24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N24" s="59"/>
@@ -2975,7 +2975,7 @@
       <c r="K25" s="61"/>
       <c r="L25" s="61"/>
       <c r="M25" s="61">
-        <f t="shared" ref="M25:M40" si="2">I25*K25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="61"/>
@@ -3113,7 +3113,7 @@
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
       <c r="M26" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26" s="59"/>
@@ -3251,7 +3251,7 @@
       <c r="K27" s="61"/>
       <c r="L27" s="61"/>
       <c r="M27" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="61"/>
@@ -3389,7 +3389,7 @@
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
       <c r="M28" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="59"/>
@@ -3527,7 +3527,7 @@
       <c r="K29" s="61"/>
       <c r="L29" s="61"/>
       <c r="M29" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="61"/>
@@ -3665,7 +3665,7 @@
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
       <c r="M30" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="59"/>
@@ -3803,7 +3803,7 @@
       <c r="K31" s="61"/>
       <c r="L31" s="61"/>
       <c r="M31" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N31" s="61"/>
@@ -3941,7 +3941,7 @@
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
       <c r="M32" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N32" s="59"/>
@@ -4079,7 +4079,7 @@
       <c r="K33" s="61"/>
       <c r="L33" s="61"/>
       <c r="M33" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N33" s="61"/>
@@ -4217,7 +4217,7 @@
       <c r="K34" s="59"/>
       <c r="L34" s="59"/>
       <c r="M34" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N34" s="59"/>
@@ -4355,7 +4355,7 @@
       <c r="K35" s="61"/>
       <c r="L35" s="61"/>
       <c r="M35" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N35" s="61"/>
@@ -4493,7 +4493,7 @@
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
       <c r="M36" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N36" s="59"/>
@@ -4631,7 +4631,7 @@
       <c r="K37" s="61"/>
       <c r="L37" s="61"/>
       <c r="M37" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N37" s="61"/>
@@ -4769,7 +4769,7 @@
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
       <c r="M38" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N38" s="59"/>
@@ -4907,7 +4907,7 @@
       <c r="K39" s="61"/>
       <c r="L39" s="61"/>
       <c r="M39" s="61">
-        <f t="shared" si="2"/>
+        <f>IF(I39*K39=0, K39, I39*K39)</f>
         <v>0</v>
       </c>
       <c r="N39" s="61"/>
@@ -5045,7 +5045,7 @@
       <c r="K40" s="56"/>
       <c r="L40" s="56"/>
       <c r="M40" s="56">
-        <f t="shared" si="2"/>
+        <f>IF(I40*K40=0, K40, I40*K40)</f>
         <v>0</v>
       </c>
       <c r="N40" s="56"/>
